--- a/New Data Cleaning/LookUp_Code_Info.xlsx
+++ b/New Data Cleaning/LookUp_Code_Info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f96342e44d1a00cb/Documents/GitHub/Project1/TTC 2018 2019 BackUp/New Data Cleaning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f96342e44d1a00cb/Documents/GitHub/Project1/TTC-Subway-Delay-Dashboard-2018-2019/TTC-Subway-Delay-Dashboard-2018-2019/New Data Cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{98EBC9EF-971D-430C-8243-E811A9E187A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81C697CE-8C11-4BB5-AB85-9FF667F90C3C}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="114_{18A95130-C781-4468-95B6-EB516AA63942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D36FA3A-CCC9-4738-AA2C-8ABF4BE84EAD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{12F30B50-64FC-4A9B-9F75-A1D42D945620}"/>
   </bookViews>
@@ -557,9 +557,6 @@
     <t>Track Level Debris - Controllable</t>
   </si>
   <si>
-    <t xml:space="preserve">PUTDN </t>
-  </si>
-  <si>
     <t>Debris At Track Level - Uncontrollable</t>
   </si>
   <si>
@@ -1077,6 +1074,9 @@
   </si>
   <si>
     <t>code_info</t>
+  </si>
+  <si>
+    <t>PUTDN</t>
   </si>
 </sst>
 </file>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921D05A1-4447-42C5-BB3E-E85EDC5288D4}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,10 +1474,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2178,343 +2178,343 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>1</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>9</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>13</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>17</v>
@@ -2546,15 +2546,15 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>19</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>23</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>25</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>27</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>29</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>31</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>33</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>35</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>41</v>
@@ -2626,31 +2626,31 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>45</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>49</v>
@@ -2666,15 +2666,15 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>53</v>
@@ -2682,15 +2682,15 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>61</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>63</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>65</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>67</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>69</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>73</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>79</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>87</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>89</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>91</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>95</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>97</v>
@@ -2786,15 +2786,15 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>101</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>103</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>105</v>
@@ -2818,23 +2818,23 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>77</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>81</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>113</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>127</v>
@@ -2866,55 +2866,55 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>131</v>
@@ -2922,15 +2922,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>165</v>
@@ -2938,146 +2938,146 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/New Data Cleaning/LookUp_Code_Info.xlsx
+++ b/New Data Cleaning/LookUp_Code_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f96342e44d1a00cb/Documents/GitHub/Project1/TTC-Subway-Delay-Dashboard-2018-2019/TTC-Subway-Delay-Dashboard-2018-2019/New Data Cleaning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ut\TTC-Subway-Delay-Dashboard-2018-2019\New Data Cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="114_{18A95130-C781-4468-95B6-EB516AA63942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D36FA3A-CCC9-4738-AA2C-8ABF4BE84EAD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B2E6EF-8C09-42EF-A6B2-2B5F9BCCF2FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{12F30B50-64FC-4A9B-9F75-A1D42D945620}"/>
   </bookViews>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921D05A1-4447-42C5-BB3E-E85EDC5288D4}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
